--- a/Screens/1 base/1_concdiffh.xlsx
+++ b/Screens/1 base/1_concdiffh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10550259_polimi_it/Documents/Universita/VI Anno/Progetto Sistemi di comunicazione/Screens/1 base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucio97/Documents/MATLAB/Progetto Drone/Screens/1 base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_714DB897CD45987C7883170450061B32608A6F58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E507B9-9057-421B-8EF6-53ECE4245B5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91300234-AA9A-A345-AA0E-118D174752CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="3660" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="3660" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>280 m</t>
+  </si>
+  <si>
+    <t>300 m</t>
+  </si>
+  <si>
+    <t>320 m</t>
+  </si>
+  <si>
+    <t>340 m</t>
+  </si>
+  <si>
+    <t>260 m</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -76,6 +100,893 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$496:$G$496</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>260 m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280 m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300 m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320 m</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340 m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$495:$G$495</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6753145897399145E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6002373299561821E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1574925932227664E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6504815215404994E-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5901158993524609E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A6D-714C-BB7E-1B5DD0BA5044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2043787872"/>
+        <c:axId val="2140777104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2043787872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140777104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140777104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2043787872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D32DB4-F1BF-5944-8EA6-2E54EF47313F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,16 +1288,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I500" sqref="I500"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="D502" sqref="D502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3.1357067199955186E-11</v>
       </c>
@@ -409,7 +1320,7 @@
         <v>2.0188400933693543E-11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.596462290246673E-11</v>
       </c>
@@ -432,7 +1343,7 @@
         <v>1.5037786417005052E-11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.9017628756917939E-11</v>
       </c>
@@ -455,7 +1366,7 @@
         <v>3.7328708701305623E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1885233212762342E-11</v>
       </c>
@@ -478,7 +1389,7 @@
         <v>9.6995592148460473E-12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.3107884260277657E-11</v>
       </c>
@@ -501,7 +1412,7 @@
         <v>9.9052783366183238E-12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9.2329632671173118E-12</v>
       </c>
@@ -524,7 +1435,7 @@
         <v>4.0305795783445309E-12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.0631026547178419E-11</v>
       </c>
@@ -547,7 +1458,7 @@
         <v>1.0942517236295778E-11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.7353368400424128E-11</v>
       </c>
@@ -570,7 +1481,7 @@
         <v>1.7496289705927516E-11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.4829631145445856E-11</v>
       </c>
@@ -593,7 +1504,7 @@
         <v>1.291713437567164E-11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.2198550202260488E-11</v>
       </c>
@@ -616,7 +1527,7 @@
         <v>9.6698230639074024E-12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7.0809371170006713E-11</v>
       </c>
@@ -639,7 +1550,7 @@
         <v>3.5166418746348937E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.4505833316180117E-12</v>
       </c>
@@ -662,7 +1573,7 @@
         <v>4.1800993014017096E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.9798169368911364E-11</v>
       </c>
@@ -685,7 +1596,7 @@
         <v>1.6783033756857994E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7.6922704839446022E-11</v>
       </c>
@@ -708,7 +1619,7 @@
         <v>6.8638889457686523E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4.1480133847686221E-11</v>
       </c>
@@ -731,7 +1642,7 @@
         <v>3.2513487625903131E-11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6.9493186847052691E-12</v>
       </c>
@@ -754,7 +1665,7 @@
         <v>4.6762662416656271E-12</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.2603027169285363E-11</v>
       </c>
@@ -777,7 +1688,7 @@
         <v>1.3418139035789448E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.1987696519334615E-12</v>
       </c>
@@ -800,7 +1711,7 @@
         <v>1.7572184992924324E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.840036736155942E-11</v>
       </c>
@@ -823,7 +1734,7 @@
         <v>1.7949597199561268E-11</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.812254691211357E-11</v>
       </c>
@@ -846,7 +1757,7 @@
         <v>1.2360554479014806E-11</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.2741862696017126E-11</v>
       </c>
@@ -869,7 +1780,7 @@
         <v>7.3560482557316711E-12</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5.641701984250295E-12</v>
       </c>
@@ -892,7 +1803,7 @@
         <v>5.2704897797331177E-12</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5.5109020491880632E-11</v>
       </c>
@@ -915,7 +1826,7 @@
         <v>4.0233204456643333E-11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.4608765350177651E-11</v>
       </c>
@@ -938,7 +1849,7 @@
         <v>1.1109094387497328E-11</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0859178074136149E-10</v>
       </c>
@@ -961,7 +1872,7 @@
         <v>6.6135829184388375E-11</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.614123234190277E-11</v>
       </c>
@@ -984,7 +1895,7 @@
         <v>2.4054680929948437E-11</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4.4149931278877943E-12</v>
       </c>
@@ -1007,7 +1918,7 @@
         <v>3.1886212409116088E-12</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4.1025705497031351E-11</v>
       </c>
@@ -1030,7 +1941,7 @@
         <v>2.1682101707844074E-11</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.982394016247044E-11</v>
       </c>
@@ -1053,7 +1964,7 @@
         <v>1.3640196308506793E-11</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0577904755633201E-11</v>
       </c>
@@ -1076,7 +1987,7 @@
         <v>6.1086123729767993E-12</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.9650850094904633E-11</v>
       </c>
@@ -1099,7 +2010,7 @@
         <v>8.0817776730600488E-12</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.1879174214379319E-11</v>
       </c>
@@ -1122,7 +2033,7 @@
         <v>1.8367731284033543E-11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6.5584307928673969E-12</v>
       </c>
@@ -1145,7 +2056,7 @@
         <v>7.4292423958461503E-12</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8.8853598826728566E-12</v>
       </c>
@@ -1168,7 +2079,7 @@
         <v>5.6088854464122916E-12</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.4268817345229475E-11</v>
       </c>
@@ -1191,7 +2102,7 @@
         <v>9.7620335372976818E-12</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2.5187389916521393E-11</v>
       </c>
@@ -1214,7 +2125,7 @@
         <v>1.2714910049643294E-11</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.2606347113711117E-11</v>
       </c>
@@ -1237,7 +2148,7 @@
         <v>1.1445846337852014E-11</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4.9975035688289609E-11</v>
       </c>
@@ -1260,7 +2171,7 @@
         <v>3.5119044325726362E-11</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8.1229213973660419E-12</v>
       </c>
@@ -1283,7 +2194,7 @@
         <v>6.6222786259974667E-12</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.4868487794702266E-11</v>
       </c>
@@ -1306,7 +2217,7 @@
         <v>9.4309323169745865E-12</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.3436408760661874E-11</v>
       </c>
@@ -1329,7 +2240,7 @@
         <v>7.8964716051704187E-12</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.1427510883289983E-11</v>
       </c>
@@ -1352,7 +2263,7 @@
         <v>2.4205058766080186E-11</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.0486047943168138E-11</v>
       </c>
@@ -1375,7 +2286,7 @@
         <v>1.1519821074274962E-11</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8.3490186871820298E-12</v>
       </c>
@@ -1398,7 +2309,7 @@
         <v>4.8937076281852472E-12</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2.0120959070764967E-11</v>
       </c>
@@ -1421,7 +2332,7 @@
         <v>1.0268798580575547E-11</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.7896159911628816E-11</v>
       </c>
@@ -1444,7 +2355,7 @@
         <v>9.0886192322314888E-12</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8.3942039612759175E-12</v>
       </c>
@@ -1467,7 +2378,7 @@
         <v>4.227266857497663E-12</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.7947866677253111E-11</v>
       </c>
@@ -1490,7 +2401,7 @@
         <v>1.1069937978940668E-11</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3.9730567387485377E-11</v>
       </c>
@@ -1513,7 +2424,7 @@
         <v>3.4177294439076426E-11</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.1927990990293868E-11</v>
       </c>
@@ -1536,7 +2447,7 @@
         <v>1.6907839127369755E-11</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3.697099998855081E-11</v>
       </c>
@@ -1559,7 +2470,7 @@
         <v>3.7166284718161994E-11</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.6497455754409333E-11</v>
       </c>
@@ -1582,7 +2493,7 @@
         <v>1.5384368066221095E-11</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9.5918289861236059E-12</v>
       </c>
@@ -1605,7 +2516,7 @@
         <v>7.4674788514322371E-12</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.88082727692663E-11</v>
       </c>
@@ -1628,7 +2539,7 @@
         <v>1.6847846135253342E-11</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.3674578854341043E-11</v>
       </c>
@@ -1651,7 +2562,7 @@
         <v>1.2748234142185427E-11</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2.8053009823142263E-11</v>
       </c>
@@ -1674,7 +2585,7 @@
         <v>1.8069061876159336E-11</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.4237337881337197E-11</v>
       </c>
@@ -1697,7 +2608,7 @@
         <v>9.1448926699539961E-12</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2.3348298392652648E-11</v>
       </c>
@@ -1720,7 +2631,7 @@
         <v>1.4243848080723038E-11</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3.5029939569556934E-11</v>
       </c>
@@ -1743,7 +2654,7 @@
         <v>1.5978444154090542E-11</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1.8143109849433066E-11</v>
       </c>
@@ -1766,7 +2677,7 @@
         <v>1.2531517533647959E-11</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.2302308579693696E-11</v>
       </c>
@@ -1789,7 +2700,7 @@
         <v>1.2763983680432563E-11</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.3454876829929965E-11</v>
       </c>
@@ -1812,7 +2723,7 @@
         <v>1.5636260967309448E-11</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1.7080858903536222E-11</v>
       </c>
@@ -1835,7 +2746,7 @@
         <v>1.6917679800882976E-11</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.9766035473807134E-11</v>
       </c>
@@ -1858,7 +2769,7 @@
         <v>1.8406985626883502E-11</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2.5807365801355973E-11</v>
       </c>
@@ -1881,7 +2792,7 @@
         <v>1.0112334073117067E-11</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1.9227407564434831E-11</v>
       </c>
@@ -1904,7 +2815,7 @@
         <v>1.7746888860723459E-11</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8.876408471936882E-12</v>
       </c>
@@ -1927,7 +2838,7 @@
         <v>9.2268074861368541E-12</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2.0020147640993191E-11</v>
       </c>
@@ -1950,7 +2861,7 @@
         <v>1.665440540851193E-11</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4.0576808236714799E-12</v>
       </c>
@@ -1973,7 +2884,7 @@
         <v>2.6394728231269645E-12</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2.1959249088960128E-11</v>
       </c>
@@ -1996,7 +2907,7 @@
         <v>1.7556259830455732E-11</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.3793582363332052E-11</v>
       </c>
@@ -2019,7 +2930,7 @@
         <v>1.8720100582933423E-11</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6.3162261703525433E-11</v>
       </c>
@@ -2042,7 +2953,7 @@
         <v>6.2467273876921995E-11</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3.7023023363664443E-11</v>
       </c>
@@ -2065,7 +2976,7 @@
         <v>2.1779278920913667E-11</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2.2440011284776108E-11</v>
       </c>
@@ -2088,7 +2999,7 @@
         <v>2.1609704803385729E-11</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7.2156602151121916E-12</v>
       </c>
@@ -2111,7 +3022,7 @@
         <v>4.3342182738046746E-12</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.9391781898171971E-11</v>
       </c>
@@ -2134,7 +3045,7 @@
         <v>1.3008788131424122E-11</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.618926515727932E-11</v>
       </c>
@@ -2157,7 +3068,7 @@
         <v>1.5223372071755264E-11</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6.87243936499588E-11</v>
       </c>
@@ -2180,7 +3091,7 @@
         <v>3.2145155518333856E-11</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3.0677810336025555E-11</v>
       </c>
@@ -2203,7 +3114,7 @@
         <v>1.7812375489939396E-11</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3.0255702281443629E-11</v>
       </c>
@@ -2226,7 +3137,7 @@
         <v>1.6187694256497461E-11</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4.2686538034044933E-11</v>
       </c>
@@ -2249,7 +3160,7 @@
         <v>1.4797479361314048E-11</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5.7679142866238039E-12</v>
       </c>
@@ -2272,7 +3183,7 @@
         <v>4.1216087214837464E-12</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3.623041442105894E-11</v>
       </c>
@@ -2295,7 +3206,7 @@
         <v>2.8635118135290756E-11</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.2682151732110679E-11</v>
       </c>
@@ -2318,7 +3229,7 @@
         <v>1.0506068411523345E-11</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6.8662920563159802E-12</v>
       </c>
@@ -2341,7 +3252,7 @@
         <v>4.6955120595701675E-12</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5.4243451405472685E-11</v>
       </c>
@@ -2364,7 +3275,7 @@
         <v>2.9121685953592514E-11</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2.5024713769794519E-11</v>
       </c>
@@ -2387,7 +3298,7 @@
         <v>2.2641510253965572E-11</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1.5460093015334558E-11</v>
       </c>
@@ -2410,7 +3321,7 @@
         <v>1.1768213548904126E-11</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2.7541676631523593E-11</v>
       </c>
@@ -2433,7 +3344,7 @@
         <v>2.363906795800385E-11</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3.5215821718513489E-11</v>
       </c>
@@ -2456,7 +3367,7 @@
         <v>2.1387491658631482E-11</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1.7543373958381959E-11</v>
       </c>
@@ -2479,7 +3390,7 @@
         <v>1.3112543373054146E-11</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2.8684250492460458E-11</v>
       </c>
@@ -2502,7 +3413,7 @@
         <v>1.7883844050315816E-11</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3.0004277818803291E-12</v>
       </c>
@@ -2525,7 +3436,7 @@
         <v>2.6308155850842866E-12</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9.3113314509292995E-12</v>
       </c>
@@ -2548,7 +3459,7 @@
         <v>7.0540141685168271E-12</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9.4942788519488706E-12</v>
       </c>
@@ -2571,7 +3482,7 @@
         <v>9.1369301212178746E-12</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1.255160575453929E-11</v>
       </c>
@@ -2594,7 +3505,7 @@
         <v>1.0275301596221479E-11</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1.7465159906147118E-11</v>
       </c>
@@ -2617,7 +3528,7 @@
         <v>1.0356966513715573E-11</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2.2811657767628753E-11</v>
       </c>
@@ -2640,7 +3551,7 @@
         <v>1.1899643593561863E-11</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2.4962521594175209E-11</v>
       </c>
@@ -2663,7 +3574,7 @@
         <v>1.7093193749284944E-11</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7.5953561852291813E-11</v>
       </c>
@@ -2686,7 +3597,7 @@
         <v>3.4535823989464431E-11</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1.5054924828118627E-11</v>
       </c>
@@ -2709,7 +3620,7 @@
         <v>9.8228668512948013E-12</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2.3416103345451346E-11</v>
       </c>
@@ -2732,7 +3643,7 @@
         <v>2.6843475569195892E-11</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5.9920437955042274E-11</v>
       </c>
@@ -2755,7 +3666,7 @@
         <v>4.1780581855881915E-11</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.496222066928909E-11</v>
       </c>
@@ -2778,7 +3689,7 @@
         <v>1.6624233141992354E-11</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1.9040442283464766E-11</v>
       </c>
@@ -2801,7 +3712,7 @@
         <v>1.5305224242103208E-11</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2.5000960078315557E-11</v>
       </c>
@@ -2824,7 +3735,7 @@
         <v>2.1260735728628528E-11</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3.9221048037642294E-11</v>
       </c>
@@ -2847,7 +3758,7 @@
         <v>2.266221531579014E-11</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2.8655160493216252E-11</v>
       </c>
@@ -2870,7 +3781,7 @@
         <v>2.0922983421289907E-11</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3.7532060812492947E-11</v>
       </c>
@@ -2893,7 +3804,7 @@
         <v>1.6181232969817291E-11</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.2987077815840014E-11</v>
       </c>
@@ -2916,7 +3827,7 @@
         <v>1.8405358738661469E-11</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1.4735418890395849E-11</v>
       </c>
@@ -2939,7 +3850,7 @@
         <v>1.0413699029352274E-11</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6.4916411937997876E-12</v>
       </c>
@@ -2962,7 +3873,7 @@
         <v>4.5613775211039198E-12</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2.3898809216859705E-11</v>
       </c>
@@ -2985,7 +3896,7 @@
         <v>1.8958679776541851E-11</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.0272662465376999E-11</v>
       </c>
@@ -3008,7 +3919,7 @@
         <v>1.0850809520045374E-11</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4.3278309351575817E-11</v>
       </c>
@@ -3031,7 +3942,7 @@
         <v>2.8612954186915639E-11</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3.7390850381789515E-11</v>
       </c>
@@ -3054,7 +3965,7 @@
         <v>2.8128651396959589E-11</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3.718020089136451E-11</v>
       </c>
@@ -3077,7 +3988,7 @@
         <v>2.4521571937257884E-11</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.1887363211635859E-11</v>
       </c>
@@ -3100,7 +4011,7 @@
         <v>6.1772262285427384E-12</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5.5660724504664032E-11</v>
       </c>
@@ -3123,7 +4034,7 @@
         <v>3.2675501614171825E-11</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.8449968856537116E-11</v>
       </c>
@@ -3146,7 +4057,7 @@
         <v>1.273621847901034E-11</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3.4201764931553842E-11</v>
       </c>
@@ -3169,7 +4080,7 @@
         <v>2.346186437652009E-11</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3.4586847208061162E-11</v>
       </c>
@@ -3192,7 +4103,7 @@
         <v>2.4048819809545613E-11</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5.8542791652217456E-12</v>
       </c>
@@ -3215,7 +4126,7 @@
         <v>4.9640386987054874E-12</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6.0825304790916039E-12</v>
       </c>
@@ -3238,7 +4149,7 @@
         <v>4.3909118255869276E-12</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.9576894624332913E-11</v>
       </c>
@@ -3261,7 +4172,7 @@
         <v>1.6356442366555599E-11</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6.2181862592391032E-11</v>
       </c>
@@ -3284,7 +4195,7 @@
         <v>2.7659550095499343E-11</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3.4601084005223466E-11</v>
       </c>
@@ -3307,7 +4218,7 @@
         <v>2.7028793514221123E-11</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4.2106928135575821E-11</v>
       </c>
@@ -3330,7 +4241,7 @@
         <v>1.2305345028256807E-11</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3.1038125774610416E-11</v>
       </c>
@@ -3353,7 +4264,7 @@
         <v>2.3063395652738643E-11</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3.231378710018677E-11</v>
       </c>
@@ -3376,7 +4287,7 @@
         <v>2.7172742420955621E-11</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.6198488393329172E-11</v>
       </c>
@@ -3399,7 +4310,7 @@
         <v>1.0336775094878853E-11</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3.3267220665492548E-12</v>
       </c>
@@ -3422,7 +4333,7 @@
         <v>2.4335919636242514E-12</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1.4537544579864085E-11</v>
       </c>
@@ -3445,7 +4356,7 @@
         <v>1.2235094768767638E-11</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3.8232876865015821E-11</v>
       </c>
@@ -3468,7 +4379,7 @@
         <v>2.4539430370302789E-11</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.1867572923726837E-11</v>
       </c>
@@ -3491,7 +4402,7 @@
         <v>7.9272109078397895E-12</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>6.4215203496584454E-11</v>
       </c>
@@ -3514,7 +4425,7 @@
         <v>3.3357468687997445E-11</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2.7847733337627673E-11</v>
       </c>
@@ -3537,7 +4448,7 @@
         <v>1.28508940606964E-11</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3.3143837339440808E-11</v>
       </c>
@@ -3560,7 +4471,7 @@
         <v>2.0198595628019637E-11</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.8946367746674995E-10</v>
       </c>
@@ -3583,7 +4494,7 @@
         <v>1.0704452985699062E-10</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2.4768119183882181E-11</v>
       </c>
@@ -3606,7 +4517,7 @@
         <v>9.799966790297869E-12</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3.141181481913522E-11</v>
       </c>
@@ -3629,7 +4540,7 @@
         <v>2.3446592818890984E-11</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.0806521160470539E-11</v>
       </c>
@@ -3652,7 +4563,7 @@
         <v>7.3194770547658097E-12</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2.0755052769785692E-11</v>
       </c>
@@ -3675,7 +4586,7 @@
         <v>1.2967859342699217E-11</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2.1188382801866414E-11</v>
       </c>
@@ -3698,7 +4609,7 @@
         <v>1.4907025018227705E-11</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2.1642336627060794E-11</v>
       </c>
@@ -3721,7 +4632,7 @@
         <v>1.5731669089940551E-11</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2.1679306677424587E-11</v>
       </c>
@@ -3744,7 +4655,7 @@
         <v>1.0256076750295866E-11</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.1938553692873459E-11</v>
       </c>
@@ -3767,7 +4678,7 @@
         <v>1.1170166610016026E-11</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.5179617484017166E-11</v>
       </c>
@@ -3790,7 +4701,7 @@
         <v>1.2031996041065153E-11</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.5433104621644131E-11</v>
       </c>
@@ -3813,7 +4724,7 @@
         <v>1.506989772490589E-11</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2.2595155043714337E-11</v>
       </c>
@@ -3836,7 +4747,7 @@
         <v>1.7241558560303807E-11</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.9093310229675764E-11</v>
       </c>
@@ -3859,7 +4770,7 @@
         <v>1.2080389557279835E-11</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3.6892023066863626E-11</v>
       </c>
@@ -3882,7 +4793,7 @@
         <v>1.7154623350432242E-11</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6.1006525529566882E-12</v>
       </c>
@@ -3905,7 +4816,7 @@
         <v>4.2261353936667633E-12</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.1235989331960292E-11</v>
       </c>
@@ -3928,7 +4839,7 @@
         <v>7.5899113150775092E-12</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2.7732663610321134E-11</v>
       </c>
@@ -3951,7 +4862,7 @@
         <v>1.6012995046354008E-11</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4.2758374945804524E-11</v>
       </c>
@@ -3974,7 +4885,7 @@
         <v>2.5352540375252728E-11</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2.9418961327169573E-11</v>
       </c>
@@ -3997,7 +4908,7 @@
         <v>1.6540803420279761E-11</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.9719305548021221E-11</v>
       </c>
@@ -4020,7 +4931,7 @@
         <v>1.6094517122233797E-11</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6.8253865217291565E-12</v>
       </c>
@@ -4043,7 +4954,7 @@
         <v>5.2887676181854823E-12</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8.5614382605391895E-12</v>
       </c>
@@ -4066,7 +4977,7 @@
         <v>5.5150866755413337E-12</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.8780922727036439E-11</v>
       </c>
@@ -4089,7 +5000,7 @@
         <v>1.6479530913376846E-11</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9.5928372339278005E-12</v>
       </c>
@@ -4112,7 +5023,7 @@
         <v>9.0940983782659927E-12</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1.8657661093992223E-11</v>
       </c>
@@ -4135,7 +5046,7 @@
         <v>9.3390731050946634E-12</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.0279666528830364E-11</v>
       </c>
@@ -4158,7 +5069,7 @@
         <v>7.1722568531028581E-12</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.3026809104365125E-11</v>
       </c>
@@ -4181,7 +5092,7 @@
         <v>9.9359455972568677E-12</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1.9639132207470646E-11</v>
       </c>
@@ -4204,7 +5115,7 @@
         <v>1.5710397351190411E-11</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.41693379599185E-11</v>
       </c>
@@ -4227,7 +5138,7 @@
         <v>1.2389260860098216E-11</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>7.0987518315478729E-12</v>
       </c>
@@ -4250,7 +5161,7 @@
         <v>4.8589331905261393E-12</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.0798360705765502E-11</v>
       </c>
@@ -4273,7 +5184,7 @@
         <v>7.1789243133334922E-12</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4.5538218869968088E-12</v>
       </c>
@@ -4296,7 +5207,7 @@
         <v>3.2754129418371222E-12</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.8314332579772962E-11</v>
       </c>
@@ -4319,7 +5230,7 @@
         <v>1.1727780652176688E-11</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.2794014164364759E-11</v>
       </c>
@@ -4342,7 +5253,7 @@
         <v>8.5442231818182748E-12</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2.4625176137895367E-12</v>
       </c>
@@ -4365,7 +5276,7 @@
         <v>2.2150627237379946E-12</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.2683671346168769E-11</v>
       </c>
@@ -4388,7 +5299,7 @@
         <v>9.3030691151720536E-12</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1.9537467867445884E-11</v>
       </c>
@@ -4411,7 +5322,7 @@
         <v>1.6390093414126904E-11</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>6.5589299367573479E-11</v>
       </c>
@@ -4434,7 +5345,7 @@
         <v>3.303315373221145E-11</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.3839791165937754E-11</v>
       </c>
@@ -4457,7 +5368,7 @@
         <v>8.7051069481207855E-12</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3.2323531759268736E-11</v>
       </c>
@@ -4480,7 +5391,7 @@
         <v>1.2407084928336779E-11</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.5829243122158952E-11</v>
       </c>
@@ -4503,7 +5414,7 @@
         <v>1.2783618255162764E-11</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>9.7588520311583767E-12</v>
       </c>
@@ -4526,7 +5437,7 @@
         <v>6.3631117648271092E-12</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.9116732264874223E-11</v>
       </c>
@@ -4549,7 +5460,7 @@
         <v>9.8891458713024604E-12</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2.617601913028483E-11</v>
       </c>
@@ -4572,7 +5483,7 @@
         <v>1.500401226658767E-11</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.794962635066292E-11</v>
       </c>
@@ -4595,7 +5506,7 @@
         <v>1.2463423108365698E-11</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>9.0303326041789131E-12</v>
       </c>
@@ -4618,7 +5529,7 @@
         <v>5.719762049863061E-12</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3.9856399383086238E-11</v>
       </c>
@@ -4641,7 +5552,7 @@
         <v>3.2089182451719276E-11</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>6.7335485580986855E-11</v>
       </c>
@@ -4664,7 +5575,7 @@
         <v>3.4983763636394609E-11</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2.4942182616675208E-11</v>
       </c>
@@ -4687,7 +5598,7 @@
         <v>1.7893269484955982E-11</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1.4537816444416316E-11</v>
       </c>
@@ -4710,7 +5621,7 @@
         <v>1.3478957962002523E-11</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1.2152504151404528E-11</v>
       </c>
@@ -4733,7 +5644,7 @@
         <v>6.5032920149467633E-12</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.7352805209618341E-11</v>
       </c>
@@ -4756,7 +5667,7 @@
         <v>9.9447819706105357E-12</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>9.9793807660534805E-12</v>
       </c>
@@ -4779,7 +5690,7 @@
         <v>8.9376733854544471E-12</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1.9540257248180283E-11</v>
       </c>
@@ -4802,7 +5713,7 @@
         <v>1.3317821954001394E-11</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2.2529488459748536E-11</v>
       </c>
@@ -4825,7 +5736,7 @@
         <v>1.6753778468367893E-11</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2.3387030705999759E-11</v>
       </c>
@@ -4848,7 +5759,7 @@
         <v>1.3262087222987336E-11</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>5.8296839435809324E-12</v>
       </c>
@@ -4871,7 +5782,7 @@
         <v>2.8545845241603474E-12</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2.1143862789043632E-11</v>
       </c>
@@ -4894,7 +5805,7 @@
         <v>1.6005492352605065E-11</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3.6724725784730255E-12</v>
       </c>
@@ -4917,7 +5828,7 @@
         <v>3.9203290887325653E-12</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.615549040197375E-11</v>
       </c>
@@ -4940,7 +5851,7 @@
         <v>8.9965922351026842E-12</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4.8005331409998159E-12</v>
       </c>
@@ -4963,7 +5874,7 @@
         <v>3.9568960374004689E-12</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.6498177415855326E-11</v>
       </c>
@@ -4986,7 +5897,7 @@
         <v>8.8181138013916377E-12</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1.7151917065620279E-11</v>
       </c>
@@ -5009,7 +5920,7 @@
         <v>1.2459914505626473E-11</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>6.3162006816406455E-11</v>
       </c>
@@ -5032,7 +5943,7 @@
         <v>4.9457747275207185E-11</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2.1515627537632129E-11</v>
       </c>
@@ -5055,7 +5966,7 @@
         <v>1.0768521927462684E-11</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>9.3337183371805417E-12</v>
       </c>
@@ -5078,7 +5989,7 @@
         <v>5.3110921791571046E-12</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1.8689231134557659E-11</v>
       </c>
@@ -5101,7 +6012,7 @@
         <v>1.7127043932122563E-11</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4.7115605045491564E-11</v>
       </c>
@@ -5124,7 +6035,7 @@
         <v>3.4996945702092883E-11</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4.6378285399283046E-11</v>
       </c>
@@ -5147,7 +6058,7 @@
         <v>1.6737236708655769E-11</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3.330490471488774E-11</v>
       </c>
@@ -5170,7 +6081,7 @@
         <v>2.1276305931401682E-11</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4.3095008182552511E-11</v>
       </c>
@@ -5193,7 +6104,7 @@
         <v>2.8132782985962498E-11</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3.8946869307804725E-11</v>
       </c>
@@ -5216,7 +6127,7 @@
         <v>2.6754126367583721E-11</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1.4018572499968608E-11</v>
       </c>
@@ -5239,7 +6150,7 @@
         <v>1.0419560348487946E-11</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6.9523035155553594E-12</v>
       </c>
@@ -5262,7 +6173,7 @@
         <v>5.2541811378981122E-12</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3.28304815024768E-11</v>
       </c>
@@ -5285,7 +6196,7 @@
         <v>2.3180458161930318E-11</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3.4302550042566649E-11</v>
       </c>
@@ -5308,7 +6219,7 @@
         <v>1.4161100013382917E-11</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1.0418236793972934E-11</v>
       </c>
@@ -5331,7 +6242,7 @@
         <v>1.124900525315642E-11</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1.9063430143233634E-11</v>
       </c>
@@ -5354,7 +6265,7 @@
         <v>9.24859707887867E-12</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3.7890841849403238E-11</v>
       </c>
@@ -5377,7 +6288,7 @@
         <v>2.1839108135163581E-11</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2.0479611753421507E-11</v>
       </c>
@@ -5400,7 +6311,7 @@
         <v>9.1656851768840593E-12</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1.2430510243086841E-11</v>
       </c>
@@ -5423,7 +6334,7 @@
         <v>7.4323061090360164E-12</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1.7645321570685988E-11</v>
       </c>
@@ -5446,7 +6357,7 @@
         <v>1.0225211519979674E-11</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1.7173653453937158E-11</v>
       </c>
@@ -5469,7 +6380,7 @@
         <v>7.2671994039630522E-12</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1.3665371221925131E-11</v>
       </c>
@@ -5492,7 +6403,7 @@
         <v>1.1335632789255023E-11</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1.4852772987116123E-11</v>
       </c>
@@ -5515,7 +6426,7 @@
         <v>1.0684902959700228E-11</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1.9986366878647712E-11</v>
       </c>
@@ -5538,7 +6449,7 @@
         <v>1.621627007829719E-11</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>6.4930903953824213E-11</v>
       </c>
@@ -5561,7 +6472,7 @@
         <v>4.9297814335026235E-11</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3.5318618665681874E-11</v>
       </c>
@@ -5584,7 +6495,7 @@
         <v>2.4982393905262681E-11</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>9.8157896617200821E-12</v>
       </c>
@@ -5607,7 +6518,7 @@
         <v>6.8040758962805919E-12</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1.6789001754846924E-11</v>
       </c>
@@ -5630,7 +6541,7 @@
         <v>1.5631045890468031E-11</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1.2392539223238713E-11</v>
       </c>
@@ -5653,7 +6564,7 @@
         <v>7.1139801144246894E-12</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3.0058907436602684E-11</v>
       </c>
@@ -5676,7 +6587,7 @@
         <v>2.309823485216006E-11</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.8667950640975845E-12</v>
       </c>
@@ -5699,7 +6610,7 @@
         <v>6.5079256903331441E-12</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6.0131167157637695E-11</v>
       </c>
@@ -5722,7 +6633,7 @@
         <v>5.1177780858794715E-11</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2.6932264932502947E-11</v>
       </c>
@@ -5745,7 +6656,7 @@
         <v>2.0947189171825364E-11</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1.6378461860595691E-11</v>
       </c>
@@ -5768,7 +6679,7 @@
         <v>1.0049351777122318E-11</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2.5064059606680333E-11</v>
       </c>
@@ -5791,7 +6702,7 @@
         <v>1.4488139299863866E-11</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4.8814639863783091E-12</v>
       </c>
@@ -5814,7 +6725,7 @@
         <v>4.0462149989480226E-12</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2.0302397022008786E-11</v>
       </c>
@@ -5837,7 +6748,7 @@
         <v>1.3116959155014433E-11</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1.7921011417293077E-11</v>
       </c>
@@ -5860,7 +6771,7 @@
         <v>1.2523366508752851E-11</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3.5252080813871186E-11</v>
       </c>
@@ -5883,7 +6794,7 @@
         <v>2.3864432700525161E-11</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5.6863233572395177E-12</v>
       </c>
@@ -5906,7 +6817,7 @@
         <v>4.7766449201997584E-12</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>7.1986666643852227E-12</v>
       </c>
@@ -5929,7 +6840,7 @@
         <v>5.0742684720066881E-12</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3.5995791700311953E-11</v>
       </c>
@@ -5952,7 +6863,7 @@
         <v>2.6045898140421312E-11</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1.864765447462496E-11</v>
       </c>
@@ -5975,7 +6886,7 @@
         <v>1.9344870586392422E-11</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1.5507302890176297E-11</v>
       </c>
@@ -5998,7 +6909,7 @@
         <v>8.7340945296351964E-12</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4.3650413526357914E-12</v>
       </c>
@@ -6021,7 +6932,7 @@
         <v>3.3550584368776039E-12</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4.5723159529643914E-11</v>
       </c>
@@ -6044,7 +6955,7 @@
         <v>2.1226287215344859E-11</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4.0503363427773493E-11</v>
       </c>
@@ -6067,7 +6978,7 @@
         <v>2.4648360764826442E-11</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1.6456173999238246E-11</v>
       </c>
@@ -6090,7 +7001,7 @@
         <v>9.5613579135923667E-12</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1.9515531968047696E-11</v>
       </c>
@@ -6113,7 +7024,7 @@
         <v>9.1923080035330149E-12</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3.1566435229244522E-11</v>
       </c>
@@ -6136,7 +7047,7 @@
         <v>2.7704294038973812E-11</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2.576445461008749E-11</v>
       </c>
@@ -6159,7 +7070,7 @@
         <v>1.0765533614519101E-11</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>6.9843926781331152E-12</v>
       </c>
@@ -6182,7 +7093,7 @@
         <v>6.1482705812025471E-12</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>5.8059255519907922E-11</v>
       </c>
@@ -6205,7 +7116,7 @@
         <v>3.4535787873856355E-11</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1.2429308846267972E-11</v>
       </c>
@@ -6228,7 +7139,7 @@
         <v>5.2739618971762842E-12</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>5.1961919876140726E-11</v>
       </c>
@@ -6251,7 +7162,7 @@
         <v>2.786439480007606E-11</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1.3411747595203643E-11</v>
       </c>
@@ -6274,7 +7185,7 @@
         <v>1.1148927967587548E-11</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1.8056543398142836E-11</v>
       </c>
@@ -6297,7 +7208,7 @@
         <v>1.2714492333730265E-11</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2.8996310840046947E-11</v>
       </c>
@@ -6320,7 +7231,7 @@
         <v>1.7308198076488997E-11</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1.5354290555144612E-11</v>
       </c>
@@ -6343,7 +7254,7 @@
         <v>1.0210808761635767E-11</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>5.26669485842423E-11</v>
       </c>
@@ -6366,7 +7277,7 @@
         <v>2.9669409943526035E-11</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3.5936097760303658E-11</v>
       </c>
@@ -6389,7 +7300,7 @@
         <v>1.765067570564263E-11</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1.0107637601545919E-11</v>
       </c>
@@ -6412,7 +7323,7 @@
         <v>4.5099817540428678E-12</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2.5194415693019425E-11</v>
       </c>
@@ -6435,7 +7346,7 @@
         <v>1.5668528646780156E-11</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1.1598096693327973E-11</v>
       </c>
@@ -6458,7 +7369,7 @@
         <v>6.8102468833493355E-12</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4.3240636118336067E-11</v>
       </c>
@@ -6481,7 +7392,7 @@
         <v>2.4755031626797794E-11</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1.7431908781164954E-11</v>
       </c>
@@ -6504,7 +7415,7 @@
         <v>1.0462036451369484E-11</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2.6096806834691242E-11</v>
       </c>
@@ -6527,7 +7438,7 @@
         <v>1.7926175800557961E-11</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2.670295053711729E-11</v>
       </c>
@@ -6550,7 +7461,7 @@
         <v>1.2691565572688987E-11</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2.1032304054677766E-11</v>
       </c>
@@ -6573,7 +7484,7 @@
         <v>1.7410876045780036E-11</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1.7242543389979745E-11</v>
       </c>
@@ -6596,7 +7507,7 @@
         <v>9.8726386582260982E-12</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1.1035110514471363E-11</v>
       </c>
@@ -6619,7 +7530,7 @@
         <v>7.0789880803753706E-12</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>5.4298600008919261E-12</v>
       </c>
@@ -6642,7 +7553,7 @@
         <v>4.2554344446084791E-12</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3.3735440959436125E-11</v>
       </c>
@@ -6665,7 +7576,7 @@
         <v>1.671519772675721E-11</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3.5139460345242375E-11</v>
       </c>
@@ -6688,7 +7599,7 @@
         <v>2.2826190160803628E-11</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1.519832452953276E-11</v>
       </c>
@@ -6711,7 +7622,7 @@
         <v>8.9204852078754094E-12</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3.1187758122280465E-11</v>
       </c>
@@ -6734,7 +7645,7 @@
         <v>2.1568669214611076E-11</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>7.3201468877136322E-12</v>
       </c>
@@ -6757,7 +7668,7 @@
         <v>4.5449359944715795E-12</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8.5627866257872104E-12</v>
       </c>
@@ -6780,7 +7691,7 @@
         <v>7.2810392140105511E-12</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4.9385204873475508E-11</v>
       </c>
@@ -6803,7 +7714,7 @@
         <v>3.0909697463830161E-11</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2.0716963658129845E-10</v>
       </c>
@@ -6826,7 +7737,7 @@
         <v>9.713782623086077E-11</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>3.4595068295377038E-11</v>
       </c>
@@ -6849,7 +7760,7 @@
         <v>2.9408306309896893E-11</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2.3386066009524529E-11</v>
       </c>
@@ -6872,7 +7783,7 @@
         <v>1.5897625435718367E-11</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1.6692194703908483E-11</v>
       </c>
@@ -6895,7 +7806,7 @@
         <v>1.1278346961099589E-11</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1.8193344570844238E-11</v>
       </c>
@@ -6918,7 +7829,7 @@
         <v>2.0211924169398976E-11</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2.7339786038942218E-11</v>
       </c>
@@ -6941,7 +7852,7 @@
         <v>2.7570546010443E-11</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2.940050081660065E-11</v>
       </c>
@@ -6964,7 +7875,7 @@
         <v>2.0629635734568747E-11</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1.5370159675156761E-11</v>
       </c>
@@ -6987,7 +7898,7 @@
         <v>1.2051079432942307E-11</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1.366149933282419E-11</v>
       </c>
@@ -7010,7 +7921,7 @@
         <v>1.8283183138558998E-11</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4.6429252311351438E-11</v>
       </c>
@@ -7033,7 +7944,7 @@
         <v>2.8228224562176115E-11</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1.8056763783395031E-11</v>
       </c>
@@ -7056,7 +7967,7 @@
         <v>1.271673007521927E-11</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1.9436495071325033E-11</v>
       </c>
@@ -7079,7 +7990,7 @@
         <v>8.4306139241236942E-12</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1.6576723452383023E-11</v>
       </c>
@@ -7102,7 +8013,7 @@
         <v>9.2761996658987888E-12</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>7.1506984701941915E-12</v>
       </c>
@@ -7125,7 +8036,7 @@
         <v>4.057132980580659E-12</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>3.0270989849898558E-11</v>
       </c>
@@ -7148,7 +8059,7 @@
         <v>1.4743965995328731E-11</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1.0969694899422334E-11</v>
       </c>
@@ -7171,7 +8082,7 @@
         <v>5.9767930910863908E-12</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>4.2571050432690908E-11</v>
       </c>
@@ -7194,7 +8105,7 @@
         <v>1.8113031791317316E-11</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>5.8839403593047785E-12</v>
       </c>
@@ -7217,7 +8128,7 @@
         <v>5.3844026376037957E-12</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>5.796179306529917E-11</v>
       </c>
@@ -7240,7 +8151,7 @@
         <v>3.6722622369788442E-11</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>7.225559995156064E-12</v>
       </c>
@@ -7263,7 +8174,7 @@
         <v>4.8983173840239114E-12</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2.1950482868358086E-11</v>
       </c>
@@ -7286,7 +8197,7 @@
         <v>1.0590130799085103E-11</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>4.0896616971730832E-11</v>
       </c>
@@ -7309,7 +8220,7 @@
         <v>1.8427243518195482E-11</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1.309461999280269E-11</v>
       </c>
@@ -7332,7 +8243,7 @@
         <v>9.8908915544717773E-12</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>6.4924015244715715E-11</v>
       </c>
@@ -7355,7 +8266,7 @@
         <v>5.0243545922001415E-11</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3.5479992344616491E-12</v>
       </c>
@@ -7378,7 +8289,7 @@
         <v>2.2539751712788716E-12</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3.3267109593675374E-11</v>
       </c>
@@ -7401,7 +8312,7 @@
         <v>2.4726816377588742E-11</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1.3895003116905267E-11</v>
       </c>
@@ -7424,7 +8335,7 @@
         <v>7.7795938810114125E-12</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>7.7295573327052675E-12</v>
       </c>
@@ -7447,7 +8358,7 @@
         <v>5.3394501690843713E-12</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1.4818250341387509E-11</v>
       </c>
@@ -7470,7 +8381,7 @@
         <v>1.1800592465358209E-11</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>9.5720043359256423E-12</v>
       </c>
@@ -7493,7 +8404,7 @@
         <v>7.9255528548754788E-12</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>4.5238000020957008E-11</v>
       </c>
@@ -7516,7 +8427,7 @@
         <v>2.3429341184964749E-11</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>6.8792260875043897E-12</v>
       </c>
@@ -7539,7 +8450,7 @@
         <v>4.2330516336971282E-12</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3.3433787749909713E-11</v>
       </c>
@@ -7562,7 +8473,7 @@
         <v>2.9362328341359088E-11</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3.1296352463526378E-11</v>
       </c>
@@ -7585,7 +8496,7 @@
         <v>1.8636147915203017E-11</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1.2759422666512725E-11</v>
       </c>
@@ -7608,7 +8519,7 @@
         <v>7.676906165754295E-12</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2.372581616981163E-11</v>
       </c>
@@ -7631,7 +8542,7 @@
         <v>1.996558656574022E-11</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>5.2318714594011601E-11</v>
       </c>
@@ -7654,7 +8565,7 @@
         <v>4.2910924351686578E-11</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>9.1702058458254036E-12</v>
       </c>
@@ -7677,7 +8588,7 @@
         <v>8.2289030232585242E-12</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1.3486822824063364E-11</v>
       </c>
@@ -7700,7 +8611,7 @@
         <v>1.0491329877209997E-11</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2.1203238911913101E-11</v>
       </c>
@@ -7723,7 +8634,7 @@
         <v>1.7075388801311852E-11</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2.3716818791768434E-11</v>
       </c>
@@ -7746,7 +8657,7 @@
         <v>2.0943300913323741E-11</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2.411685355815428E-11</v>
       </c>
@@ -7769,7 +8680,7 @@
         <v>1.0476165051591988E-11</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1.1443042931707691E-11</v>
       </c>
@@ -7792,7 +8703,7 @@
         <v>6.7035732786370265E-12</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>8.6841817179991848E-12</v>
       </c>
@@ -7815,7 +8726,7 @@
         <v>9.7761985701104072E-12</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3.5231027661605629E-11</v>
       </c>
@@ -7838,7 +8749,7 @@
         <v>4.98602718724178E-11</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1.6534500008075738E-11</v>
       </c>
@@ -7861,7 +8772,7 @@
         <v>1.8629942293021569E-11</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>6.9457545197504102E-11</v>
       </c>
@@ -7884,7 +8795,7 @@
         <v>4.2756642314182134E-11</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1.969988237527594E-11</v>
       </c>
@@ -7907,7 +8818,7 @@
         <v>1.2186146705828493E-11</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1.3021183058716695E-11</v>
       </c>
@@ -7930,7 +8841,7 @@
         <v>1.0722785648968031E-11</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1.3486519396392931E-11</v>
       </c>
@@ -7953,7 +8864,7 @@
         <v>1.1912724146753107E-11</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1.3449054774136683E-11</v>
       </c>
@@ -7976,7 +8887,7 @@
         <v>8.601728601046982E-12</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1.6644392043915124E-11</v>
       </c>
@@ -7999,7 +8910,7 @@
         <v>1.45182495152897E-11</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2.3261778831726944E-11</v>
       </c>
@@ -8022,7 +8933,7 @@
         <v>1.3180453124657407E-11</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1.7044257324567386E-11</v>
       </c>
@@ -8045,7 +8956,7 @@
         <v>1.1069003328195623E-11</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>9.282564816835678E-12</v>
       </c>
@@ -8068,7 +8979,7 @@
         <v>7.632785407430805E-12</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3.3776827537722221E-11</v>
       </c>
@@ -8091,7 +9002,7 @@
         <v>2.5868501988311794E-11</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2.4178797630043663E-11</v>
       </c>
@@ -8114,7 +9025,7 @@
         <v>1.3955061294274102E-11</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1.1692131772290257E-11</v>
       </c>
@@ -8137,7 +9048,7 @@
         <v>6.5481261488637076E-12</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3.3064904448623383E-11</v>
       </c>
@@ -8160,7 +9071,7 @@
         <v>1.4645954168637082E-11</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>6.6437240759372152E-12</v>
       </c>
@@ -8183,7 +9094,7 @@
         <v>4.0086402164712746E-12</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1.1297614354294208E-11</v>
       </c>
@@ -8206,7 +9117,7 @@
         <v>8.5058301521265085E-12</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1.0178516235225506E-11</v>
       </c>
@@ -8229,7 +9140,7 @@
         <v>7.3871595789079364E-12</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3.9028121625908965E-11</v>
       </c>
@@ -8252,7 +9163,7 @@
         <v>2.1109018928366496E-11</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2.175768916338026E-11</v>
       </c>
@@ -8275,7 +9186,7 @@
         <v>1.3430980815103273E-11</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3.1387836574833081E-11</v>
       </c>
@@ -8298,7 +9209,7 @@
         <v>2.0667055535193114E-11</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3.540676128449223E-11</v>
       </c>
@@ -8321,7 +9232,7 @@
         <v>1.9044400587662236E-11</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2.4944018080205364E-11</v>
       </c>
@@ -8344,7 +9255,7 @@
         <v>1.3719781393108568E-11</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2.8449550199737934E-11</v>
       </c>
@@ -8367,7 +9278,7 @@
         <v>1.2839031929403635E-11</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1.9652928694391495E-11</v>
       </c>
@@ -8390,7 +9301,7 @@
         <v>1.5073451680898246E-11</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2.9127757231086506E-11</v>
       </c>
@@ -8413,7 +9324,7 @@
         <v>1.8894750439242089E-11</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1.9635667713029251E-11</v>
       </c>
@@ -8436,7 +9347,7 @@
         <v>1.126806630306785E-11</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1.476862155793436E-11</v>
       </c>
@@ -8459,7 +9370,7 @@
         <v>1.7000812064294888E-11</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1.3751988006192436E-11</v>
       </c>
@@ -8482,7 +9393,7 @@
         <v>1.5932653127080158E-11</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>5.3331815987053935E-12</v>
       </c>
@@ -8505,7 +9416,7 @@
         <v>5.2328740931076816E-12</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2.2013016733880054E-11</v>
       </c>
@@ -8528,7 +9439,7 @@
         <v>1.522542403853016E-11</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1.3542584929153312E-11</v>
       </c>
@@ -8551,7 +9462,7 @@
         <v>6.4302938030857809E-12</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>8.0217953466049916E-12</v>
       </c>
@@ -8574,7 +9485,7 @@
         <v>6.6721671039766403E-12</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>9.9043155836761717E-12</v>
       </c>
@@ -8597,7 +9508,7 @@
         <v>4.6283281362884075E-12</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2.0586319398428769E-11</v>
       </c>
@@ -8620,7 +9531,7 @@
         <v>9.7761599461072208E-12</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2.9940836506151791E-11</v>
       </c>
@@ -8643,7 +9554,7 @@
         <v>1.1845489370763936E-11</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3.1028517691348785E-11</v>
       </c>
@@ -8666,7 +9577,7 @@
         <v>3.2676117315044304E-11</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1.1365453390237548E-11</v>
       </c>
@@ -8689,7 +9600,7 @@
         <v>1.0532880535711969E-11</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1.3718533993369226E-11</v>
       </c>
@@ -8712,7 +9623,7 @@
         <v>1.6811106842661446E-11</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1.8479961904353275E-11</v>
       </c>
@@ -8735,7 +9646,7 @@
         <v>1.1159869871713159E-11</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2.0323754405606646E-11</v>
       </c>
@@ -8758,7 +9669,7 @@
         <v>1.3470395036348277E-11</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1.4164445926135933E-11</v>
       </c>
@@ -8781,7 +9692,7 @@
         <v>6.1520272305490596E-12</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>4.6744745101832005E-11</v>
       </c>
@@ -8804,7 +9715,7 @@
         <v>1.4531426018010302E-11</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>8.3513930488644492E-12</v>
       </c>
@@ -8827,7 +9738,7 @@
         <v>6.6460143568318026E-12</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1.4149241375263459E-11</v>
       </c>
@@ -8850,7 +9761,7 @@
         <v>1.2516808294836458E-11</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>7.8120041811359703E-12</v>
       </c>
@@ -8873,7 +9784,7 @@
         <v>4.8867600462870521E-12</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>5.1713709225525511E-11</v>
       </c>
@@ -8896,7 +9807,7 @@
         <v>3.191384725964855E-11</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1.4849376830076947E-11</v>
       </c>
@@ -8919,7 +9830,7 @@
         <v>1.0306034889427367E-11</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1.0614286152246805E-11</v>
       </c>
@@ -8942,7 +9853,7 @@
         <v>6.5219100411608017E-12</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1.1257716903797322E-11</v>
       </c>
@@ -8965,7 +9876,7 @@
         <v>1.0236940431876621E-11</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1.3475689421234198E-11</v>
       </c>
@@ -8988,7 +9899,7 @@
         <v>7.2940224897277903E-12</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3.475259554544863E-11</v>
       </c>
@@ -9011,7 +9922,7 @@
         <v>2.0338376017497452E-11</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3.3128431726666018E-11</v>
       </c>
@@ -9034,7 +9945,7 @@
         <v>2.0824213090552523E-11</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>4.638355379187681E-11</v>
       </c>
@@ -9057,7 +9968,7 @@
         <v>4.012324378530452E-11</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1.9156913827967504E-11</v>
       </c>
@@ -9080,7 +9991,7 @@
         <v>1.4474314078411202E-11</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1.1974219098877997E-11</v>
       </c>
@@ -9103,7 +10014,7 @@
         <v>6.4098805301921037E-12</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1.2642001131260509E-11</v>
       </c>
@@ -9126,7 +10037,7 @@
         <v>9.7515452968780415E-12</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>5.4188919573947597E-11</v>
       </c>
@@ -9149,7 +10060,7 @@
         <v>5.5540533614715311E-11</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>8.2155275104208828E-12</v>
       </c>
@@ -9172,7 +10083,7 @@
         <v>5.6339761008866087E-12</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>5.2364928688923566E-11</v>
       </c>
@@ -9195,7 +10106,7 @@
         <v>2.1141045258301712E-11</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1.6341796591569923E-11</v>
       </c>
@@ -9218,7 +10129,7 @@
         <v>1.102134011695119E-11</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2.3264446697262081E-11</v>
       </c>
@@ -9241,7 +10152,7 @@
         <v>2.0414967640300481E-11</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>8.3955610389035381E-12</v>
       </c>
@@ -9264,7 +10175,7 @@
         <v>6.795961977358554E-12</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2.3346345651573483E-11</v>
       </c>
@@ -9287,7 +10198,7 @@
         <v>1.6073061507271162E-11</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3.7113863362399487E-11</v>
       </c>
@@ -9310,7 +10221,7 @@
         <v>1.8447898361707761E-11</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1.1712693055096463E-11</v>
       </c>
@@ -9333,7 +10244,7 @@
         <v>1.8339417697549482E-11</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1.5046543164500262E-11</v>
       </c>
@@ -9356,7 +10267,7 @@
         <v>1.2158124883824086E-11</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1.8707354789619821E-11</v>
       </c>
@@ -9379,7 +10290,7 @@
         <v>1.0311846721435175E-11</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>6.1245969039612094E-12</v>
       </c>
@@ -9402,7 +10313,7 @@
         <v>4.8693531691755005E-12</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3.3010895658163635E-11</v>
       </c>
@@ -9425,7 +10336,7 @@
         <v>2.1456368010206158E-11</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1.4738449393589585E-11</v>
       </c>
@@ -9448,7 +10359,7 @@
         <v>1.1580494745457341E-11</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1.1701095848614703E-11</v>
       </c>
@@ -9471,7 +10382,7 @@
         <v>1.0251694874548781E-11</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1.2300521474416403E-11</v>
       </c>
@@ -9494,7 +10405,7 @@
         <v>7.9396626031261785E-12</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1.5003600726732087E-11</v>
       </c>
@@ -9517,7 +10428,7 @@
         <v>1.2596235470270741E-11</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1.4214736029881323E-11</v>
       </c>
@@ -9540,7 +10451,7 @@
         <v>9.1755986958089196E-12</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>5.2248413176458171E-11</v>
       </c>
@@ -9563,7 +10474,7 @@
         <v>4.1251723949818765E-11</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1.7168393184539979E-11</v>
       </c>
@@ -9586,7 +10497,7 @@
         <v>1.0971542172218829E-11</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>7.6061329615095386E-12</v>
       </c>
@@ -9609,7 +10520,7 @@
         <v>6.7795470828151411E-12</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2.7056027601063547E-11</v>
       </c>
@@ -9632,7 +10543,7 @@
         <v>2.245051305356313E-11</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1.4477635679673263E-11</v>
       </c>
@@ -9655,7 +10566,7 @@
         <v>1.3755540406040469E-11</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2.0605386914359619E-11</v>
       </c>
@@ -9678,7 +10589,7 @@
         <v>9.3981056103988459E-12</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1.0218880099214595E-11</v>
       </c>
@@ -9701,7 +10612,7 @@
         <v>1.2856359665158526E-11</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>5.1086202495812195E-12</v>
       </c>
@@ -9724,7 +10635,7 @@
         <v>4.1754711668940469E-12</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3.4250697528398484E-11</v>
       </c>
@@ -9747,7 +10658,7 @@
         <v>1.9753033618124861E-11</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>7.2162978189603285E-12</v>
       </c>
@@ -9770,7 +10681,7 @@
         <v>5.6984064893862466E-12</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2.64615909388343E-11</v>
       </c>
@@ -9793,7 +10704,7 @@
         <v>1.665834454722329E-11</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3.7210189373684541E-11</v>
       </c>
@@ -9816,7 +10727,7 @@
         <v>1.6829974124406513E-11</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>1.8080959566047786E-11</v>
       </c>
@@ -9839,7 +10750,7 @@
         <v>1.7481313203525272E-11</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1.8858422528425167E-11</v>
       </c>
@@ -9862,7 +10773,7 @@
         <v>1.2944222940316214E-11</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>4.5187754407700726E-11</v>
       </c>
@@ -9885,7 +10796,7 @@
         <v>3.7482493473525384E-11</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1.1582485726316535E-11</v>
       </c>
@@ -9908,7 +10819,7 @@
         <v>5.4574600823119677E-12</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>7.5846216818131048E-12</v>
       </c>
@@ -9931,7 +10842,7 @@
         <v>6.2186836630743651E-12</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1.0521647257040938E-11</v>
       </c>
@@ -9954,7 +10865,7 @@
         <v>7.4011354344711456E-12</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4.373749305983936E-11</v>
       </c>
@@ -9977,7 +10888,7 @@
         <v>1.8309590085575229E-11</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>6.9963261410510631E-12</v>
       </c>
@@ -10000,7 +10911,7 @@
         <v>4.2156272376511825E-12</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4.5120552920481329E-11</v>
       </c>
@@ -10023,7 +10934,7 @@
         <v>4.2954237321380426E-11</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2.6997950885664753E-11</v>
       </c>
@@ -10046,7 +10957,7 @@
         <v>1.192542870951878E-11</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>6.6510375378101201E-12</v>
       </c>
@@ -10069,7 +10980,7 @@
         <v>5.2513621926330794E-12</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4.0513007047914755E-11</v>
       </c>
@@ -10092,7 +11003,7 @@
         <v>2.9408664266846782E-11</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1.7881621555977554E-11</v>
       </c>
@@ -10115,7 +11026,7 @@
         <v>1.986274011163852E-11</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2.9689005317086618E-11</v>
       </c>
@@ -10138,7 +11049,7 @@
         <v>1.9995604990893082E-11</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>7.2399756584547297E-12</v>
       </c>
@@ -10161,7 +11072,7 @@
         <v>5.2892770894122301E-12</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2.8706608215535363E-11</v>
       </c>
@@ -10184,7 +11095,7 @@
         <v>2.0806862031616373E-11</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2.1344841369269036E-11</v>
       </c>
@@ -10207,7 +11118,7 @@
         <v>1.2505693578597244E-11</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1.4848372766363531E-11</v>
       </c>
@@ -10230,7 +11141,7 @@
         <v>1.2061757601762271E-11</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3.0882620690617754E-11</v>
       </c>
@@ -10253,7 +11164,7 @@
         <v>1.1995672506855712E-11</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2.3912809826898768E-11</v>
       </c>
@@ -10276,7 +11187,7 @@
         <v>1.535353236115801E-11</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>7.3655566031723973E-11</v>
       </c>
@@ -10299,7 +11210,7 @@
         <v>2.9038708011533242E-11</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2.1696254812049827E-11</v>
       </c>
@@ -10322,7 +11233,7 @@
         <v>1.4955755403829563E-11</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2.1295762935445575E-11</v>
       </c>
@@ -10345,7 +11256,7 @@
         <v>1.9558154291767171E-11</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>1.3110267417482804E-11</v>
       </c>
@@ -10368,7 +11279,7 @@
         <v>6.7977814918666309E-12</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3.1023671749515965E-11</v>
       </c>
@@ -10391,7 +11302,7 @@
         <v>2.8370544444497563E-11</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2.2083157805336281E-11</v>
       </c>
@@ -10414,7 +11325,7 @@
         <v>8.4456400915321351E-12</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>1.0293996551048533E-11</v>
       </c>
@@ -10437,7 +11348,7 @@
         <v>1.4647989491942739E-11</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3.1205331583127397E-11</v>
       </c>
@@ -10460,7 +11371,7 @@
         <v>2.1906899446584924E-11</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>1.5418840914912283E-11</v>
       </c>
@@ -10483,7 +11394,7 @@
         <v>9.5067037530547635E-12</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1.3864100140223725E-11</v>
       </c>
@@ -10506,7 +11417,7 @@
         <v>1.3975739292320403E-11</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3.1565430797259608E-11</v>
       </c>
@@ -10529,7 +11440,7 @@
         <v>2.0195400229602415E-11</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1.5594900810145189E-11</v>
       </c>
@@ -10552,7 +11463,7 @@
         <v>1.114864649481205E-11</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4.5033548858697982E-11</v>
       </c>
@@ -10575,7 +11486,7 @@
         <v>3.2888985366871828E-11</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>8.6773312394794307E-12</v>
       </c>
@@ -10598,7 +11509,7 @@
         <v>6.319880407020921E-12</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>7.2472939179719893E-12</v>
       </c>
@@ -10621,7 +11532,7 @@
         <v>5.1233661083392799E-12</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>4.1019804398526456E-11</v>
       </c>
@@ -10644,7 +11555,7 @@
         <v>3.1192529386010693E-11</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1.1890192271120425E-11</v>
       </c>
@@ -10667,7 +11578,7 @@
         <v>6.7697956507982499E-12</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>5.4064788207891478E-12</v>
       </c>
@@ -10690,7 +11601,7 @@
         <v>2.5326989007513987E-12</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>5.7701952149182147E-12</v>
       </c>
@@ -10713,7 +11624,7 @@
         <v>4.612944372213752E-12</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>5.8714147847540918E-12</v>
       </c>
@@ -10736,7 +11647,7 @@
         <v>3.653746614034029E-12</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>5.3106275231276849E-11</v>
       </c>
@@ -10759,7 +11670,7 @@
         <v>4.4178991746845428E-11</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2.698454623646292E-11</v>
       </c>
@@ -10782,7 +11693,7 @@
         <v>2.1665325918100593E-11</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>6.9262780485618107E-12</v>
       </c>
@@ -10805,7 +11716,7 @@
         <v>2.854562044930035E-12</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2.9806512009595077E-11</v>
       </c>
@@ -10828,7 +11739,7 @@
         <v>1.8418621954044697E-11</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1.6571986777312847E-11</v>
       </c>
@@ -10851,7 +11762,7 @@
         <v>1.0098830372364541E-11</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2.7718564567703968E-11</v>
       </c>
@@ -10874,7 +11785,7 @@
         <v>1.7277271763882635E-11</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2.7967766455318881E-11</v>
       </c>
@@ -10897,7 +11808,7 @@
         <v>2.713412107359217E-11</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2.9486622597451368E-11</v>
       </c>
@@ -10920,7 +11831,7 @@
         <v>1.339852622427249E-11</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1.2030080545665191E-11</v>
       </c>
@@ -10943,7 +11854,7 @@
         <v>9.211061729223322E-12</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2.2768354023614377E-11</v>
       </c>
@@ -10966,7 +11877,7 @@
         <v>2.2353879453415698E-11</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1.8914187441092032E-11</v>
       </c>
@@ -10989,7 +11900,7 @@
         <v>1.9794368867541028E-11</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>5.8249440411630773E-11</v>
       </c>
@@ -11012,7 +11923,7 @@
         <v>3.4356582374545704E-11</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1.9671899588743099E-11</v>
       </c>
@@ -11035,7 +11946,7 @@
         <v>1.1356720292148919E-11</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1.2285102660901181E-11</v>
       </c>
@@ -11058,7 +11969,7 @@
         <v>8.7800929334782092E-12</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1.6140698385603032E-11</v>
       </c>
@@ -11081,7 +11992,7 @@
         <v>8.9618200044707572E-12</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1.9632325456766419E-11</v>
       </c>
@@ -11104,7 +12015,7 @@
         <v>1.303172049010093E-11</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3.2749307893546325E-11</v>
       </c>
@@ -11127,7 +12038,7 @@
         <v>2.4663826637348417E-11</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>8.5149820314744049E-12</v>
       </c>
@@ -11150,7 +12061,7 @@
         <v>7.9621367139022064E-12</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1.1761142468932457E-11</v>
       </c>
@@ -11173,7 +12084,7 @@
         <v>1.1833421760937398E-11</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>4.7240120198680044E-12</v>
       </c>
@@ -11196,7 +12107,7 @@
         <v>5.6938062578737184E-12</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3.4155258735162997E-11</v>
       </c>
@@ -11219,7 +12130,7 @@
         <v>3.1886060665754461E-11</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1.1963479731211788E-11</v>
       </c>
@@ -11242,7 +12153,7 @@
         <v>1.160988036644065E-11</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>5.596987308045323E-12</v>
       </c>
@@ -11265,7 +12176,7 @@
         <v>3.3672851763835354E-12</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>6.6326167856258618E-11</v>
       </c>
@@ -11288,7 +12199,7 @@
         <v>4.0862120158376237E-11</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1.0859977255117988E-11</v>
       </c>
@@ -11311,7 +12222,7 @@
         <v>7.7204917693488367E-12</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2.4325289999947397E-11</v>
       </c>
@@ -11334,7 +12245,7 @@
         <v>1.4313066721579488E-11</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>9.8248729131614048E-12</v>
       </c>
@@ -11357,7 +12268,7 @@
         <v>5.2277395924672473E-12</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>1.1066123758576422E-11</v>
       </c>
@@ -11380,7 +12291,7 @@
         <v>7.4731531382620653E-12</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>8.3701821770034478E-12</v>
       </c>
@@ -11403,7 +12314,7 @@
         <v>4.9724850639920185E-12</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>1.4634491752657452E-11</v>
       </c>
@@ -11426,7 +12337,7 @@
         <v>1.11530165611986E-11</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4.9427361248457817E-11</v>
       </c>
@@ -11449,7 +12360,7 @@
         <v>3.2071731713932992E-11</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2.0257977616111079E-11</v>
       </c>
@@ -11472,7 +12383,7 @@
         <v>1.2581468730301913E-11</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3.2045696858696354E-11</v>
       </c>
@@ -11495,7 +12406,7 @@
         <v>2.2585627541560881E-11</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1.0061262632828025E-11</v>
       </c>
@@ -11518,7 +12429,7 @@
         <v>1.3851990995271949E-11</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>7.2982630328665569E-12</v>
       </c>
@@ -11541,7 +12452,7 @@
         <v>4.8746734348656513E-12</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3.2697736483911934E-11</v>
       </c>
@@ -11564,7 +12475,7 @@
         <v>1.7347558191176066E-11</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>1.6148604770273707E-11</v>
       </c>
@@ -11587,7 +12498,7 @@
         <v>1.8501381781831369E-11</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2.6689040917032214E-11</v>
       </c>
@@ -11610,7 +12521,7 @@
         <v>2.164379092761019E-11</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>7.1114695557096711E-11</v>
       </c>
@@ -11633,7 +12544,7 @@
         <v>5.2344466279221094E-11</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>1.9140747965042132E-11</v>
       </c>
@@ -11656,7 +12567,7 @@
         <v>1.0499948279980691E-11</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2.4186925840988982E-11</v>
       </c>
@@ -11679,7 +12590,7 @@
         <v>1.2858144703163077E-11</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1.190253031531151E-11</v>
       </c>
@@ -11702,7 +12613,7 @@
         <v>6.3986452646765785E-12</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>1.8897969235361507E-11</v>
       </c>
@@ -11725,7 +12636,7 @@
         <v>1.5019913000797304E-11</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495">
         <f t="shared" ref="A495:C495" si="0">AVERAGE(A1:A493)</f>
         <v>2.3736304775693404E-11</v>
@@ -11755,30 +12666,30 @@
         <v>1.5901158993524609E-11</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>220</v>
       </c>
       <c r="B496">
         <v>240</v>
       </c>
-      <c r="C496">
-        <v>260</v>
-      </c>
-      <c r="D496">
-        <v>280</v>
-      </c>
-      <c r="E496">
-        <v>300</v>
-      </c>
-      <c r="F496">
-        <v>320</v>
-      </c>
-      <c r="G496">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="C496" t="s">
+        <v>4</v>
+      </c>
+      <c r="D496" t="s">
+        <v>0</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1</v>
+      </c>
+      <c r="F496" t="s">
+        <v>2</v>
+      </c>
+      <c r="G496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="b">
         <f>IF(A495&gt;B495,TRUE,FALSE)</f>
         <v>0</v>
@@ -11809,6 +12720,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>